--- a/public/data/yield_loss/yield_table_angola.xlsx
+++ b/public/data/yield_loss/yield_table_angola.xlsx
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>8025.87</v>
+        <v>5601.54</v>
       </c>
       <c r="G8" t="n">
         <v>1106.69</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>193.45</v>
+        <v>124.04</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>59.08</v>
       </c>
       <c r="U8" t="n">
-        <v>170.03</v>
+        <v>137.35</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3322.46</v>
+        <v>2420.56</v>
       </c>
       <c r="G10" t="n">
         <v>1172.76</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1237.47</v>
+        <v>599.92</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>22.19</v>
       </c>
       <c r="U10" t="n">
-        <v>136.01</v>
+        <v>103.87</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3486.32</v>
+        <v>3485.94</v>
       </c>
       <c r="G13" t="n">
         <v>2.94</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>110.01</v>
+        <v>110</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3148.32</v>
+        <v>3144.26</v>
       </c>
       <c r="G14" t="n">
         <v>6.77</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>78.51</v>
+        <v>78.37</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>61384.35</v>
+        <v>35610.23</v>
       </c>
       <c r="G16" t="n">
         <v>5151.43</v>
@@ -2800,22 +2800,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3252.95</v>
+        <v>574.64</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>142359.67</v>
+        <v>68537.13</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>625.19</v>
+        <v>491.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>55556.4</v>
+        <v>27361.12</v>
       </c>
       <c r="R16" t="n">
         <v>0.05</v>
@@ -2824,16 +2824,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>563.37</v>
+        <v>355.79</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.85</v>
+        <v>321.67</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>11977.95</v>
+        <v>11601.37</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>43.54</v>
       </c>
       <c r="Z16" t="n">
-        <v>47.71</v>
+        <v>37.34</v>
       </c>
     </row>
     <row r="17">
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>26363.64</v>
+        <v>13646.69</v>
       </c>
       <c r="G17" t="n">
         <v>14807.77</v>
@@ -2880,22 +2880,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>25753.44</v>
+        <v>12203.81</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>20187.37</v>
+        <v>19222.69</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>18966.46</v>
+        <v>17312.61</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2904,16 +2904,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>97.54</v>
+        <v>87.14</v>
       </c>
       <c r="U17" t="n">
-        <v>1806.12</v>
+        <v>916.61</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>25239.46</v>
+        <v>25129.05</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>30.85</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="18">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133273</v>
+        <v>37023.48</v>
       </c>
       <c r="G18" t="n">
         <v>27490.76</v>
@@ -2960,13 +2960,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>5960.61</v>
+        <v>3524.19</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>61711.25</v>
+        <v>57204.65</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>30392.68</v>
+        <v>28637.72</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2984,16 +2984,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>150.69</v>
+        <v>141.37</v>
       </c>
       <c r="U18" t="n">
-        <v>4096.51</v>
+        <v>1091.34</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>28581.52</v>
+        <v>28569.22</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>88740.64</v>
+        <v>49638.34</v>
       </c>
       <c r="G19" t="n">
         <v>98.77</v>
@@ -3040,22 +3040,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>99.8</v>
+        <v>86.66</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>55145.2</v>
+        <v>53992.87</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>436.03</v>
+        <v>420.39</v>
       </c>
       <c r="Q19" t="n">
-        <v>19194.37</v>
+        <v>18876.49</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3064,16 +3064,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>349.37</v>
+        <v>339.82</v>
       </c>
       <c r="U19" t="n">
-        <v>284.98</v>
+        <v>245.24</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>475.42</v>
+        <v>475.21</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>15.81</v>
       </c>
       <c r="Z19" t="n">
-        <v>48.02</v>
+        <v>46.46</v>
       </c>
     </row>
     <row r="20">
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>63631.83</v>
+        <v>33012.19</v>
       </c>
       <c r="G20" t="n">
         <v>41053.69</v>
@@ -3120,22 +3120,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>67010.04</v>
+        <v>28749.67</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>89533.83</v>
+        <v>81655.7</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>157.87</v>
+        <v>145.93</v>
       </c>
       <c r="Q20" t="n">
-        <v>55077.44</v>
+        <v>50199.18</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3144,16 +3144,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>682.22</v>
+        <v>633.46</v>
       </c>
       <c r="U20" t="n">
-        <v>2009.06</v>
+        <v>1060.17</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>49611.53</v>
+        <v>49401.68</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>84.09</v>
       </c>
       <c r="Z20" t="n">
-        <v>42.38</v>
+        <v>39.73</v>
       </c>
     </row>
     <row r="21">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>5558.38</v>
+        <v>2048.66</v>
       </c>
       <c r="G21" t="n">
         <v>5190.46</v>
@@ -3200,22 +3200,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>14898.08</v>
+        <v>5303.45</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>5815.5</v>
+        <v>3937.32</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>32.17</v>
+        <v>16.52</v>
       </c>
       <c r="Q21" t="n">
-        <v>7279.43</v>
+        <v>4617.72</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3224,16 +3224,16 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>73.72</v>
+        <v>46.83</v>
       </c>
       <c r="U21" t="n">
-        <v>642.45</v>
+        <v>358.54</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>14051.8</v>
+        <v>13409.77</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>37.98</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>103510.09</v>
+        <v>37985.29</v>
       </c>
       <c r="G22" t="n">
         <v>57.27</v>
@@ -3280,22 +3280,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>45.35</v>
+        <v>22.62</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>119488.63</v>
+        <v>73523.36</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>209.44</v>
+        <v>162.23</v>
       </c>
       <c r="Q22" t="n">
-        <v>36411.12</v>
+        <v>23128.28</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3304,16 +3304,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>321.6</v>
+        <v>222.49</v>
       </c>
       <c r="U22" t="n">
-        <v>15.15</v>
+        <v>10.9</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>320.21</v>
+        <v>311.71</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>18.82</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.26</v>
+        <v>17.46</v>
       </c>
     </row>
     <row r="23">
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>115228.12</v>
+        <v>38769.31</v>
       </c>
       <c r="G23" t="n">
         <v>2216.42</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1119.22</v>
+        <v>590.91</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>41978.09</v>
+        <v>40443.55</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>16381.64</v>
+        <v>15476.99</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3384,16 +3384,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>93.96</v>
+        <v>88.12</v>
       </c>
       <c r="U23" t="n">
-        <v>3964.24</v>
+        <v>1119.47</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>14716.64</v>
+        <v>14675.98</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>62566.28</v>
+        <v>22742.29</v>
       </c>
       <c r="G24" t="n">
         <v>11552.57</v>
@@ -3440,13 +3440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>7420.91</v>
+        <v>2649.29</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>54427.15</v>
+        <v>40476.04</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>23678.3</v>
+        <v>18497.34</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3464,16 +3464,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>128.17</v>
+        <v>100.3</v>
       </c>
       <c r="U24" t="n">
-        <v>1287.42</v>
+        <v>561.95</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>17155.42</v>
+        <v>17001.43</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>168.78</v>
+        <v>168.69</v>
       </c>
       <c r="G25" t="n">
         <v>12.8</v>
@@ -3520,7 +3520,7 @@
         <v>10.18</v>
       </c>
       <c r="L25" t="n">
-        <v>457.85</v>
+        <v>457.58</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>42.97</v>
       </c>
       <c r="O25" t="n">
-        <v>8.79</v>
+        <v>8.78</v>
       </c>
       <c r="P25" t="n">
         <v>10.11</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>279.53</v>
+        <v>279.52</v>
       </c>
       <c r="G26" t="n">
         <v>2.62</v>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>554.7</v>
+        <v>555.03</v>
       </c>
       <c r="G27" t="n">
         <v>110.72</v>
@@ -3677,10 +3677,10 @@
         <v>0.01</v>
       </c>
       <c r="K27" t="n">
-        <v>35.23</v>
+        <v>35.79</v>
       </c>
       <c r="L27" t="n">
-        <v>1727.99</v>
+        <v>1729.07</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>73.84</v>
       </c>
       <c r="O27" t="n">
-        <v>48.54</v>
+        <v>48.56</v>
       </c>
       <c r="P27" t="n">
         <v>4.1</v>
@@ -3707,7 +3707,7 @@
         <v>0.68</v>
       </c>
       <c r="U27" t="n">
-        <v>6.9</v>
+        <v>7.03</v>
       </c>
       <c r="V27" t="n">
         <v>0.05</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2974.95</v>
+        <v>1640.23</v>
       </c>
       <c r="G31" t="n">
         <v>5047.56</v>
@@ -4000,22 +4000,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>4298.96</v>
+        <v>2357.13</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>3058.46</v>
+        <v>2978.01</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>251.58</v>
+        <v>248.24</v>
       </c>
       <c r="Q31" t="n">
-        <v>1878.84</v>
+        <v>1766.92</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>915.99</v>
+        <v>888.48</v>
       </c>
       <c r="U31" t="n">
-        <v>57.37</v>
+        <v>38.89</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>3079.47</v>
+        <v>3077.25</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>8.08</v>
       </c>
       <c r="Z31" t="n">
-        <v>116.42</v>
+        <v>111.26</v>
       </c>
     </row>
     <row r="32">
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>86.05</v>
+        <v>84.97</v>
       </c>
       <c r="G32" t="n">
         <v>988.96</v>
@@ -4080,22 +4080,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>363.53</v>
+        <v>351.87</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>555.35</v>
+        <v>541.06</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>77.18</v>
+        <v>75.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>26.39</v>
+        <v>24.32</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4104,16 +4104,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>164.87</v>
+        <v>159.13</v>
       </c>
       <c r="U32" t="n">
-        <v>1.46</v>
+        <v>2.11</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>262.55</v>
+        <v>262.54</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0.57</v>
       </c>
       <c r="Z32" t="n">
-        <v>12.02</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="33">
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>77.09</v>
+        <v>75.31</v>
       </c>
       <c r="G35" t="n">
         <v>3099.39</v>
@@ -4320,13 +4320,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2383.6</v>
+        <v>2296.69</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1204.43</v>
+        <v>1197.63</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>26.36</v>
       </c>
       <c r="Q35" t="n">
-        <v>872.8</v>
+        <v>865.37</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -4344,10 +4344,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>367.44</v>
+        <v>365.16</v>
       </c>
       <c r="U35" t="n">
-        <v>20.33</v>
+        <v>21.1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -4362,7 +4362,7 @@
         <v>3.05</v>
       </c>
       <c r="Z35" t="n">
-        <v>53.43</v>
+        <v>53.08</v>
       </c>
     </row>
     <row r="36">
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>11429.22</v>
+        <v>4320.29</v>
       </c>
       <c r="G38" t="n">
         <v>3545.09</v>
@@ -4560,22 +4560,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>2208.81</v>
+        <v>861.31</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>7520.15</v>
+        <v>6481.98</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1200.12</v>
+        <v>958.37</v>
       </c>
       <c r="Q38" t="n">
-        <v>18878.88</v>
+        <v>15353.25</v>
       </c>
       <c r="R38" t="n">
         <v>0.85</v>
@@ -4584,16 +4584,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1368.32</v>
+        <v>1080.5</v>
       </c>
       <c r="U38" t="n">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>14049.66</v>
+        <v>13806.45</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>17.11</v>
       </c>
       <c r="Z38" t="n">
-        <v>150.46</v>
+        <v>122.89</v>
       </c>
     </row>
     <row r="39">
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3330.75</v>
+        <v>2553.37</v>
       </c>
       <c r="G39" t="n">
         <v>196.16</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>171.24</v>
+        <v>131.18</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2835.69</v>
+        <v>2728.93</v>
       </c>
       <c r="G40" t="n">
         <v>143.82</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>406.73</v>
+        <v>399.04</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>434.19</v>
+        <v>431.83</v>
       </c>
       <c r="G41" t="n">
         <v>74.83</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>379.12</v>
+        <v>376.61</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1743.24</v>
+        <v>1742.62</v>
       </c>
       <c r="G42" t="n">
         <v>206.01</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>280.14</v>
+        <v>279.37</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>59.54</v>
+        <v>58.32</v>
       </c>
       <c r="G44" t="n">
         <v>42.65</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>89.65</v>
+        <v>88.01</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1653.26</v>
+        <v>1652.82</v>
       </c>
       <c r="G45" t="n">
         <v>3.32</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>109.66</v>
+        <v>109.64</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>3246.05</v>
+        <v>2829.91</v>
       </c>
       <c r="G46" t="n">
         <v>202.48</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>233.3</v>
+        <v>207.14</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1591.56</v>
+        <v>1571.16</v>
       </c>
       <c r="G47" t="n">
         <v>39.44</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>143.72</v>
+        <v>142.4</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>3260.98</v>
+        <v>1439.92</v>
       </c>
       <c r="G49" t="n">
         <v>387.46</v>
@@ -5440,22 +5440,22 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>422.89</v>
+        <v>121.37</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>2509.96</v>
+        <v>2503.97</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>189.7</v>
+        <v>189.13</v>
       </c>
       <c r="Q49" t="n">
-        <v>2540.23</v>
+        <v>2531.29</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>244.02</v>
+        <v>243.36</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -5482,7 +5482,7 @@
         <v>1.75</v>
       </c>
       <c r="Z49" t="n">
-        <v>26.63</v>
+        <v>26.56</v>
       </c>
     </row>
     <row r="50">
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>11767.21</v>
+        <v>5567.75</v>
       </c>
       <c r="G50" t="n">
         <v>1976.3</v>
@@ -5520,22 +5520,22 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>1407.08</v>
+        <v>616.14</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>10679.93</v>
+        <v>10659.73</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>707.5</v>
+        <v>705.78</v>
       </c>
       <c r="Q50" t="n">
-        <v>17061.06</v>
+        <v>17008.23</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -5544,10 +5544,10 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1000.67</v>
+        <v>998.96</v>
       </c>
       <c r="U50" t="n">
-        <v>4.4</v>
+        <v>2.36</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5562,7 +5562,7 @@
         <v>10.27</v>
       </c>
       <c r="Z50" t="n">
-        <v>205.06</v>
+        <v>204.47</v>
       </c>
     </row>
     <row r="51">
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>6128.38</v>
+        <v>3749.23</v>
       </c>
       <c r="G52" t="n">
         <v>1679.53</v>
@@ -5680,13 +5680,13 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>1263.34</v>
+        <v>638.39</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1287.91</v>
+        <v>1282.63</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         <v>124.36</v>
       </c>
       <c r="Q52" t="n">
-        <v>3639.49</v>
+        <v>3628.32</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>960</v>
+        <v>716.8</v>
       </c>
       <c r="G53" t="n">
         <v>505.62</v>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1342.07</v>
+        <v>1337.91</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1013.09</v>
+        <v>982.53</v>
       </c>
       <c r="G54" t="n">
         <v>707.11</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1403.04</v>
+        <v>1384.72</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>555.78</v>
+        <v>554.39</v>
       </c>
       <c r="G55" t="n">
         <v>251.36</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>879.41</v>
+        <v>876.37</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1172.17</v>
+        <v>635.06</v>
       </c>
       <c r="G56" t="n">
         <v>1554.59</v>
@@ -6000,13 +6000,13 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>1669.08</v>
+        <v>727.26</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>524.98</v>
+        <v>344.17</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2832.64</v>
+        <v>1828.61</v>
       </c>
       <c r="R56" t="n">
         <v>2.91</v>
@@ -6024,16 +6024,16 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>5.34</v>
+        <v>2.64</v>
       </c>
       <c r="U56" t="n">
-        <v>172.44</v>
+        <v>26.53</v>
       </c>
       <c r="V56" t="n">
         <v>42.13</v>
       </c>
       <c r="W56" t="n">
-        <v>1189.08</v>
+        <v>1188.28</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
@@ -6142,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>300.46</v>
+        <v>315.75</v>
       </c>
       <c r="G58" t="n">
         <v>456.86</v>
@@ -6160,13 +6160,13 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>1361.07</v>
+        <v>1324.04</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>276.72</v>
+        <v>190.45</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>1531.99</v>
+        <v>760.58</v>
       </c>
       <c r="R58" t="n">
         <v>3.82</v>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>7.81</v>
+        <v>3.08</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>751.64</v>
+        <v>746.93</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>2728.07</v>
+        <v>1579.87</v>
       </c>
       <c r="G60" t="n">
         <v>2105.01</v>
@@ -6462,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>2024.51</v>
+        <v>1290.14</v>
       </c>
       <c r="G62" t="n">
         <v>1034.59</v>
@@ -6480,13 +6480,13 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>400.45</v>
+        <v>374.59</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>457.8</v>
+        <v>457.55</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -6495,7 +6495,7 @@
         <v>31.05</v>
       </c>
       <c r="Q62" t="n">
-        <v>770.27</v>
+        <v>769.89</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>58.5</v>
+        <v>57.91</v>
       </c>
       <c r="G66" t="n">
         <v>9.87</v>
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>43.2</v>
+        <v>42.97</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>13364.03</v>
+        <v>7008.55</v>
       </c>
       <c r="G69" t="n">
         <v>660.18</v>
@@ -7040,22 +7040,22 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>863.77</v>
+        <v>536.77</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>9674.97</v>
+        <v>9190.99</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>1647.49</v>
+        <v>1623.39</v>
       </c>
       <c r="Q69" t="n">
-        <v>3388.02</v>
+        <v>3252.57</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>754.51</v>
+        <v>740.77</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>121.97</v>
+        <v>121.96</v>
       </c>
       <c r="X69" t="n">
         <v>0</v>
@@ -7082,7 +7082,7 @@
         <v>7.37</v>
       </c>
       <c r="Z69" t="n">
-        <v>155.46</v>
+        <v>152.8</v>
       </c>
     </row>
     <row r="70">
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>137.31</v>
+        <v>132.45</v>
       </c>
       <c r="G70" t="n">
         <v>109.37</v>
@@ -7120,19 +7120,19 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>295.03</v>
+        <v>278.79</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>214.61</v>
+        <v>214.57</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>666.93</v>
+        <v>666.76</v>
       </c>
       <c r="Q70" t="n">
         <v>95.03</v>
@@ -7144,10 +7144,10 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>243.89</v>
+        <v>243.83</v>
       </c>
       <c r="U70" t="n">
-        <v>13.92</v>
+        <v>13.57</v>
       </c>
       <c r="V70" t="n">
         <v>87.71</v>
@@ -7162,7 +7162,7 @@
         <v>4.64</v>
       </c>
       <c r="Z70" t="n">
-        <v>50.05</v>
+        <v>50.03</v>
       </c>
     </row>
     <row r="71">
@@ -7182,7 +7182,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>7832.7</v>
+        <v>5146.51</v>
       </c>
       <c r="G71" t="n">
         <v>4129</v>
@@ -7200,22 +7200,22 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>714.01</v>
+        <v>502.52</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>7360.87</v>
+        <v>7130.55</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>2064.61</v>
+        <v>2008.5</v>
       </c>
       <c r="Q71" t="n">
-        <v>3389.53</v>
+        <v>3198.01</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -7224,16 +7224,16 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>914.23</v>
+        <v>891.68</v>
       </c>
       <c r="U71" t="n">
-        <v>139.61</v>
+        <v>114.94</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>2212.03</v>
+        <v>2199.3</v>
       </c>
       <c r="X71" t="n">
         <v>0</v>
@@ -7242,7 +7242,7 @@
         <v>9.35</v>
       </c>
       <c r="Z71" t="n">
-        <v>199.1</v>
+        <v>194.36</v>
       </c>
     </row>
     <row r="72">
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>60.4</v>
+        <v>58.55</v>
       </c>
       <c r="G72" t="n">
         <v>109.26</v>
@@ -7280,19 +7280,19 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>212.14</v>
+        <v>201.27</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>150.72</v>
+        <v>150.19</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>425.24</v>
+        <v>423.95</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -7304,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>144.92</v>
+        <v>144.44</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
@@ -7322,7 +7322,7 @@
         <v>0.66</v>
       </c>
       <c r="Z72" t="n">
-        <v>27.96</v>
+        <v>27.87</v>
       </c>
     </row>
     <row r="73">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>231.88</v>
+        <v>203.81</v>
       </c>
       <c r="G73" t="n">
         <v>403.36</v>
@@ -7360,19 +7360,19 @@
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>656.08</v>
+        <v>566.91</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>497.62</v>
+        <v>494.98</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>1219.77</v>
+        <v>1210.93</v>
       </c>
       <c r="Q73" t="n">
         <v>0.34</v>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>510.49</v>
+        <v>507.39</v>
       </c>
       <c r="U73" t="n">
         <v>0.04</v>
@@ -7402,7 +7402,7 @@
         <v>9.42</v>
       </c>
       <c r="Z73" t="n">
-        <v>98.55</v>
+        <v>97.94</v>
       </c>
     </row>
     <row r="74">
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>819.63</v>
+        <v>538.08</v>
       </c>
       <c r="G74" t="n">
         <v>188.73</v>
@@ -7440,19 +7440,19 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>403.71</v>
+        <v>300.23</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>413.1</v>
+        <v>412.82</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>760.29</v>
+        <v>759.5</v>
       </c>
       <c r="Q74" t="n">
         <v>477.43</v>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>299.39</v>
+        <v>299.12</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>2.64</v>
       </c>
       <c r="Z74" t="n">
-        <v>61.69</v>
+        <v>61.63</v>
       </c>
     </row>
     <row r="75">
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>309.82</v>
+        <v>309.4</v>
       </c>
       <c r="G75" t="n">
         <v>5.71</v>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>52.11</v>
+        <v>50.86</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>4129.29</v>
+        <v>2078.05</v>
       </c>
       <c r="G76" t="n">
         <v>324.45</v>
@@ -7600,22 +7600,22 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>514.17</v>
+        <v>263.73</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>4920.86</v>
+        <v>3699.78</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1172.77</v>
+        <v>1037.59</v>
       </c>
       <c r="Q76" t="n">
-        <v>1996.09</v>
+        <v>1414.56</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -7624,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>533.48</v>
+        <v>468.74</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
@@ -7633,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>66.6</v>
+        <v>65.13</v>
       </c>
       <c r="X76" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
         <v>5.12</v>
       </c>
       <c r="Z76" t="n">
-        <v>103.93</v>
+        <v>92.69</v>
       </c>
     </row>
     <row r="77">
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>471.24</v>
+        <v>327.19</v>
       </c>
       <c r="G77" t="n">
         <v>606.71</v>
@@ -7680,22 +7680,22 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>883.32</v>
+        <v>602.29</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>608.66</v>
+        <v>598.26</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>2461.59</v>
+        <v>2418.83</v>
       </c>
       <c r="Q77" t="n">
-        <v>190.05</v>
+        <v>186.51</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -7704,16 +7704,16 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>1031.51</v>
+        <v>1015.16</v>
       </c>
       <c r="U77" t="n">
-        <v>27.11</v>
+        <v>22.5</v>
       </c>
       <c r="V77" t="n">
         <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>136.29</v>
+        <v>136.13</v>
       </c>
       <c r="X77" t="n">
         <v>0</v>
@@ -7722,7 +7722,7 @@
         <v>7.14</v>
       </c>
       <c r="Z77" t="n">
-        <v>229.97</v>
+        <v>226.06</v>
       </c>
     </row>
     <row r="78">
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>371.73</v>
+        <v>354.18</v>
       </c>
       <c r="G78" t="n">
         <v>1.68</v>
@@ -7760,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>15.07</v>
+        <v>14.94</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>31.89</v>
+        <v>26.78</v>
       </c>
       <c r="G79" t="n">
         <v>29.09</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>103.28</v>
+        <v>85.45</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -7902,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>549.58</v>
+        <v>552.02</v>
       </c>
       <c r="G80" t="n">
         <v>15.31</v>
@@ -7920,13 +7920,13 @@
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>178.51</v>
+        <v>179.37</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>526.67</v>
+        <v>524.85</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -7935,7 +7935,7 @@
         <v>31.73</v>
       </c>
       <c r="Q80" t="n">
-        <v>448.2</v>
+        <v>447.42</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -7947,7 +7947,7 @@
         <v>16.52</v>
       </c>
       <c r="U80" t="n">
-        <v>38.62</v>
+        <v>39.6</v>
       </c>
       <c r="V80" t="n">
         <v>0</v>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>564.22</v>
+        <v>562.64</v>
       </c>
       <c r="G81" t="n">
         <v>1.58</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>99.07</v>
+        <v>98.52</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -8027,7 +8027,7 @@
         <v>2.49</v>
       </c>
       <c r="U81" t="n">
-        <v>12.81</v>
+        <v>12.75</v>
       </c>
       <c r="V81" t="n">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>299.44</v>
+        <v>299.07</v>
       </c>
       <c r="G83" t="n">
         <v>2.38</v>
@@ -8160,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>103.41</v>
+        <v>103.19</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -8187,7 +8187,7 @@
         <v>1.57</v>
       </c>
       <c r="U83" t="n">
-        <v>17.88</v>
+        <v>17.94</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>418.85</v>
+        <v>343.39</v>
       </c>
       <c r="G84" t="n">
         <v>75.31</v>
@@ -8240,22 +8240,22 @@
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>316.53</v>
+        <v>258.25</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>398.99</v>
+        <v>398.78</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>266.07</v>
+        <v>266.06</v>
       </c>
       <c r="Q84" t="n">
-        <v>567.56</v>
+        <v>567.06</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -8264,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>52.22</v>
+        <v>52.21</v>
       </c>
       <c r="U84" t="n">
-        <v>90.41</v>
+        <v>79.57</v>
       </c>
       <c r="V84" t="n">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>178.95</v>
+        <v>177.42</v>
       </c>
       <c r="G87" t="n">
         <v>3.18</v>
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>69.2</v>
+        <v>68.38</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -8507,7 +8507,7 @@
         <v>0.98</v>
       </c>
       <c r="U87" t="n">
-        <v>12.27</v>
+        <v>12.43</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
@@ -8542,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>1813.68</v>
+        <v>1021.83</v>
       </c>
       <c r="G88" t="n">
         <v>1275.59</v>
@@ -8560,22 +8560,22 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>3693.68</v>
+        <v>1116.65</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>2107.24</v>
+        <v>1940.49</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>30.82</v>
+        <v>30.61</v>
       </c>
       <c r="Q88" t="n">
-        <v>2543.7</v>
+        <v>2343.6</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -8584,16 +8584,16 @@
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>54.19</v>
+        <v>52.36</v>
       </c>
       <c r="U88" t="n">
-        <v>302.28</v>
+        <v>192.9</v>
       </c>
       <c r="V88" t="n">
         <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>2475.94</v>
+        <v>2463.15</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>2.21</v>
       </c>
       <c r="Z88" t="n">
-        <v>7.92</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="89">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>75.02</v>
+        <v>75</v>
       </c>
       <c r="G90" t="n">
         <v>0.1</v>
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>20.62</v>
+        <v>20.61</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>539.86</v>
+        <v>538.17</v>
       </c>
       <c r="G91" t="n">
         <v>1.9</v>
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>120.76</v>
+        <v>120.1</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -8827,7 +8827,7 @@
         <v>4.13</v>
       </c>
       <c r="U91" t="n">
-        <v>16.67</v>
+        <v>16.61</v>
       </c>
       <c r="V91" t="n">
         <v>0</v>
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>2123.38</v>
+        <v>553.74</v>
       </c>
       <c r="G102" t="n">
         <v>57700</v>
@@ -9677,22 +9677,22 @@
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>14.75</v>
+        <v>8.57</v>
       </c>
       <c r="L102" t="n">
-        <v>9116.44</v>
+        <v>2246.66</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>7332.86</v>
+        <v>5332.9</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>9.29</v>
+        <v>8.6</v>
       </c>
       <c r="Q102" t="n">
         <v>0</v>
@@ -9707,13 +9707,13 @@
         <v>1.66</v>
       </c>
       <c r="U102" t="n">
-        <v>59.99</v>
+        <v>32.97</v>
       </c>
       <c r="V102" t="n">
         <v>0</v>
       </c>
       <c r="W102" t="n">
-        <v>28397.64</v>
+        <v>28110.86</v>
       </c>
       <c r="X102" t="n">
         <v>0</v>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>164.06</v>
+        <v>110.94</v>
       </c>
       <c r="G103" t="n">
         <v>1825.39</v>
@@ -9760,13 +9760,13 @@
         <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>573.93</v>
+        <v>392.69</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>344.08</v>
+        <v>343.58</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
@@ -9775,7 +9775,7 @@
         <v>0.26</v>
       </c>
       <c r="Q103" t="n">
-        <v>298.56</v>
+        <v>297.34</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -9822,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>376.4</v>
+        <v>99.55</v>
       </c>
       <c r="G104" t="n">
         <v>2467.34</v>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>1560.14</v>
+        <v>410</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -9867,7 +9867,7 @@
         <v>0.18</v>
       </c>
       <c r="U104" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="V104" t="n">
         <v>0</v>
@@ -9902,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>1928.87</v>
+        <v>370.26</v>
       </c>
       <c r="G105" t="n">
         <v>26842.8</v>
@@ -9920,13 +9920,13 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>8670.32</v>
+        <v>1608.95</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>3680.76</v>
+        <v>3248.71</v>
       </c>
       <c r="O105" t="n">
         <v>0</v>
@@ -9947,13 +9947,13 @@
         <v>0.25</v>
       </c>
       <c r="U105" t="n">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
       <c r="V105" t="n">
         <v>0</v>
       </c>
       <c r="W105" t="n">
-        <v>16496.99</v>
+        <v>16491.57</v>
       </c>
       <c r="X105" t="n">
         <v>0</v>
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>1599.03</v>
+        <v>685.83</v>
       </c>
       <c r="G106" t="n">
         <v>9818.18</v>
@@ -10000,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>4579.08</v>
+        <v>1851.08</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="U106" t="n">
-        <v>1.53</v>
+        <v>0.73</v>
       </c>
       <c r="V106" t="n">
         <v>0</v>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>380.17</v>
+        <v>85.1</v>
       </c>
       <c r="G107" t="n">
         <v>4853.8</v>
@@ -10080,19 +10080,19 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>1915.31</v>
+        <v>435.41</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>476.68</v>
+        <v>473.78</v>
       </c>
       <c r="O107" t="n">
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>11.42</v>
+        <v>11.31</v>
       </c>
       <c r="Q107" t="n">
         <v>0</v>
@@ -10104,10 +10104,10 @@
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="U107" t="n">
-        <v>6.51</v>
+        <v>2.22</v>
       </c>
       <c r="V107" t="n">
         <v>0</v>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>708.72</v>
+        <v>195.63</v>
       </c>
       <c r="G108" t="n">
         <v>8404.65</v>
@@ -10160,22 +10160,22 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>2292.93</v>
+        <v>638</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>1271.29</v>
+        <v>1252.4</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>3.56</v>
+        <v>3.45</v>
       </c>
       <c r="Q108" t="n">
-        <v>696.15</v>
+        <v>677.07</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>19.64</v>
       </c>
       <c r="Z108" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="109">
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>2695.27</v>
+        <v>439.6</v>
       </c>
       <c r="G109" t="n">
         <v>17248.23</v>
@@ -10240,13 +10240,13 @@
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>10709.33</v>
+        <v>1698.72</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>2807.82</v>
+        <v>2782.61</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="W109" t="n">
-        <v>11038.81</v>
+        <v>11038.78</v>
       </c>
       <c r="X109" t="n">
         <v>0</v>
@@ -10302,7 +10302,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>1457.56</v>
+        <v>682.78</v>
       </c>
       <c r="G110" t="n">
         <v>7703.1</v>
@@ -10320,13 +10320,13 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>2767.25</v>
+        <v>1456.4</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>1303.22</v>
+        <v>1302.59</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
@@ -10335,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>913.04</v>
+        <v>910.02</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
@@ -10347,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="U110" t="n">
-        <v>16.4</v>
+        <v>2.33</v>
       </c>
       <c r="V110" t="n">
         <v>0</v>
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>349.84</v>
+        <v>144.75</v>
       </c>
       <c r="G111" t="n">
         <v>7028.81</v>
@@ -10400,22 +10400,22 @@
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>411.02</v>
+        <v>153.69</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>2582.39</v>
+        <v>2207.04</v>
       </c>
       <c r="O111" t="n">
         <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>27.92</v>
+        <v>23.99</v>
       </c>
       <c r="Q111" t="n">
-        <v>5400.77</v>
+        <v>4739.37</v>
       </c>
       <c r="R111" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="U111" t="n">
-        <v>3.99</v>
+        <v>2.31</v>
       </c>
       <c r="V111" t="n">
         <v>0</v>
       </c>
       <c r="W111" t="n">
-        <v>1125.1</v>
+        <v>1124.21</v>
       </c>
       <c r="X111" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>19.04</v>
       </c>
       <c r="Z111" t="n">
-        <v>5.05</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="112">
@@ -10462,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1339.02</v>
+        <v>602.89</v>
       </c>
       <c r="G112" t="n">
         <v>42811.62</v>
@@ -10480,22 +10480,22 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>1098.47</v>
+        <v>606.85</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>12418.76</v>
+        <v>8496.41</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>329.09</v>
+        <v>230.42</v>
       </c>
       <c r="Q112" t="n">
-        <v>33356.14</v>
+        <v>24133.62</v>
       </c>
       <c r="R112" t="n">
         <v>0</v>
@@ -10504,16 +10504,16 @@
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>6.75</v>
+        <v>4.49</v>
       </c>
       <c r="U112" t="n">
-        <v>11.03</v>
+        <v>14.08</v>
       </c>
       <c r="V112" t="n">
         <v>0</v>
       </c>
       <c r="W112" t="n">
-        <v>5172.38</v>
+        <v>4923.18</v>
       </c>
       <c r="X112" t="n">
         <v>0</v>
@@ -10522,7 +10522,7 @@
         <v>72.55</v>
       </c>
       <c r="Z112" t="n">
-        <v>55.41</v>
+        <v>40.42</v>
       </c>
     </row>
     <row r="113">
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>4988.13</v>
+        <v>1668.29</v>
       </c>
       <c r="G113" t="n">
         <v>105189.59</v>
@@ -10557,25 +10557,25 @@
         <v>1.86</v>
       </c>
       <c r="K113" t="n">
-        <v>62.75</v>
+        <v>18.74</v>
       </c>
       <c r="L113" t="n">
-        <v>5948.8</v>
+        <v>1961.5</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>28305.06</v>
+        <v>20715.65</v>
       </c>
       <c r="O113" t="n">
         <v>0</v>
       </c>
       <c r="P113" t="n">
-        <v>816.62</v>
+        <v>622.87</v>
       </c>
       <c r="Q113" t="n">
-        <v>11268.43</v>
+        <v>8677.28</v>
       </c>
       <c r="R113" t="n">
         <v>2.58</v>
@@ -10584,16 +10584,16 @@
         <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>15.65</v>
+        <v>14.88</v>
       </c>
       <c r="U113" t="n">
-        <v>49.37</v>
+        <v>26.21</v>
       </c>
       <c r="V113" t="n">
         <v>4.18</v>
       </c>
       <c r="W113" t="n">
-        <v>12463.9</v>
+        <v>12365.63</v>
       </c>
       <c r="X113" t="n">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>170.12</v>
       </c>
       <c r="Z113" t="n">
-        <v>28.77</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="114">
@@ -10622,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>9367.37</v>
+        <v>2181.49</v>
       </c>
       <c r="G114" t="n">
         <v>148498.36</v>
@@ -10637,25 +10637,25 @@
         <v>0.37</v>
       </c>
       <c r="K114" t="n">
-        <v>8.45</v>
+        <v>3.01</v>
       </c>
       <c r="L114" t="n">
-        <v>16341.1</v>
+        <v>2761.1</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>55922.17</v>
+        <v>41230.6</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>485.91</v>
+        <v>357.33</v>
       </c>
       <c r="Q114" t="n">
-        <v>24628.03</v>
+        <v>19772.03</v>
       </c>
       <c r="R114" t="n">
         <v>0.64</v>
@@ -10664,16 +10664,16 @@
         <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>2.13</v>
+        <v>1.74</v>
       </c>
       <c r="U114" t="n">
-        <v>51.5</v>
+        <v>2.6</v>
       </c>
       <c r="V114" t="n">
         <v>1.41</v>
       </c>
       <c r="W114" t="n">
-        <v>22416.11</v>
+        <v>22200.97</v>
       </c>
       <c r="X114" t="n">
         <v>0.02</v>
@@ -10682,7 +10682,7 @@
         <v>121.32</v>
       </c>
       <c r="Z114" t="n">
-        <v>49.1</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="115">
@@ -10702,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>4082.36</v>
+        <v>3212.01</v>
       </c>
       <c r="G115" t="n">
         <v>3112.56</v>
@@ -10720,7 +10720,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>3750.85</v>
+        <v>2828.02</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -10747,7 +10747,7 @@
         <v>42.64</v>
       </c>
       <c r="U115" t="n">
-        <v>34.98</v>
+        <v>20.73</v>
       </c>
       <c r="V115" t="n">
         <v>57.97</v>
@@ -10782,7 +10782,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>8856.8</v>
+        <v>5453.12</v>
       </c>
       <c r="G116" t="n">
         <v>13751.49</v>
@@ -10800,22 +10800,22 @@
         <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>7196.22</v>
+        <v>4655.81</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>6267.74</v>
+        <v>6059.73</v>
       </c>
       <c r="O116" t="n">
         <v>0</v>
       </c>
       <c r="P116" t="n">
-        <v>116.08</v>
+        <v>101.68</v>
       </c>
       <c r="Q116" t="n">
-        <v>21879.69</v>
+        <v>21499.32</v>
       </c>
       <c r="R116" t="n">
         <v>0</v>
@@ -10824,16 +10824,16 @@
         <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>155.02</v>
+        <v>136.54</v>
       </c>
       <c r="U116" t="n">
-        <v>48.63</v>
+        <v>34.6</v>
       </c>
       <c r="V116" t="n">
         <v>5301.51</v>
       </c>
       <c r="W116" t="n">
-        <v>6550.53</v>
+        <v>6397</v>
       </c>
       <c r="X116" t="n">
         <v>0</v>
@@ -10842,7 +10842,7 @@
         <v>20.51</v>
       </c>
       <c r="Z116" t="n">
-        <v>23.09</v>
+        <v>21.99</v>
       </c>
     </row>
     <row r="117">
@@ -10862,7 +10862,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>2240.14</v>
+        <v>1307.23</v>
       </c>
       <c r="G117" t="n">
         <v>5380.78</v>
@@ -10880,13 +10880,13 @@
         <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>2175.06</v>
+        <v>1310.99</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
       </c>
       <c r="N117" t="n">
-        <v>1688.72</v>
+        <v>1637.64</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
       <c r="Q117" t="n">
-        <v>4183.63</v>
+        <v>4037.21</v>
       </c>
       <c r="R117" t="n">
         <v>0</v>
@@ -10907,13 +10907,13 @@
         <v>0</v>
       </c>
       <c r="U117" t="n">
-        <v>25.64</v>
+        <v>14.79</v>
       </c>
       <c r="V117" t="n">
         <v>0</v>
       </c>
       <c r="W117" t="n">
-        <v>1678.92</v>
+        <v>1678.83</v>
       </c>
       <c r="X117" t="n">
         <v>0</v>
@@ -10942,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>5144.39</v>
+        <v>1675.93</v>
       </c>
       <c r="G118" t="n">
         <v>2921.95</v>
@@ -10960,13 +10960,13 @@
         <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>6676.52</v>
+        <v>2034.16</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>1786.89</v>
+        <v>1705.9</v>
       </c>
       <c r="O118" t="n">
         <v>0</v>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="Q118" t="n">
-        <v>4343.17</v>
+        <v>3913.35</v>
       </c>
       <c r="R118" t="n">
         <v>0.31</v>
@@ -10987,13 +10987,13 @@
         <v>0</v>
       </c>
       <c r="U118" t="n">
-        <v>75.26</v>
+        <v>24.94</v>
       </c>
       <c r="V118" t="n">
         <v>0</v>
       </c>
       <c r="W118" t="n">
-        <v>2956.81</v>
+        <v>2937.52</v>
       </c>
       <c r="X118" t="n">
         <v>0</v>
@@ -11022,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>1936.66</v>
+        <v>1544.72</v>
       </c>
       <c r="G119" t="n">
         <v>2946.03</v>
@@ -11040,13 +11040,13 @@
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>1459.07</v>
+        <v>1086.23</v>
       </c>
       <c r="M119" t="n">
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>1187.6</v>
+        <v>1187.15</v>
       </c>
       <c r="O119" t="n">
         <v>0</v>
@@ -11055,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="Q119" t="n">
-        <v>1521.63</v>
+        <v>1520.18</v>
       </c>
       <c r="R119" t="n">
         <v>0</v>
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="U119" t="n">
-        <v>10.41</v>
+        <v>7.36</v>
       </c>
       <c r="V119" t="n">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>5461.5</v>
+        <v>2343.43</v>
       </c>
       <c r="G120" t="n">
         <v>5880.26</v>
@@ -11120,13 +11120,13 @@
         <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>5182.79</v>
+        <v>2235.76</v>
       </c>
       <c r="M120" t="n">
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>3270.55</v>
+        <v>2703.4</v>
       </c>
       <c r="O120" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="Q120" t="n">
-        <v>8609.79</v>
+        <v>7305</v>
       </c>
       <c r="R120" t="n">
         <v>0</v>
@@ -11147,13 +11147,13 @@
         <v>0</v>
       </c>
       <c r="U120" t="n">
-        <v>71.5</v>
+        <v>29.46</v>
       </c>
       <c r="V120" t="n">
         <v>35496.5</v>
       </c>
       <c r="W120" t="n">
-        <v>3533.57</v>
+        <v>3529.34</v>
       </c>
       <c r="X120" t="n">
         <v>0</v>
@@ -11182,7 +11182,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>4556.58</v>
+        <v>1482.42</v>
       </c>
       <c r="G121" t="n">
         <v>9723.75</v>
@@ -11200,13 +11200,13 @@
         <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>4839.49</v>
+        <v>1280.96</v>
       </c>
       <c r="M121" t="n">
         <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>1727.65</v>
+        <v>1727.06</v>
       </c>
       <c r="O121" t="n">
         <v>0</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="Q121" t="n">
-        <v>1183.3</v>
+        <v>1182.99</v>
       </c>
       <c r="R121" t="n">
         <v>0</v>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="U121" t="n">
-        <v>29.73</v>
+        <v>8.04</v>
       </c>
       <c r="V121" t="n">
         <v>0</v>
@@ -11262,7 +11262,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>2902.51</v>
+        <v>1786.63</v>
       </c>
       <c r="G122" t="n">
         <v>7481.3</v>
@@ -11280,13 +11280,13 @@
         <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>4486.21</v>
+        <v>2447</v>
       </c>
       <c r="M122" t="n">
         <v>0</v>
       </c>
       <c r="N122" t="n">
-        <v>2570.14</v>
+        <v>2470.39</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
@@ -11295,7 +11295,7 @@
         <v>0</v>
       </c>
       <c r="Q122" t="n">
-        <v>9230.89</v>
+        <v>8911.27</v>
       </c>
       <c r="R122" t="n">
         <v>0.05</v>
@@ -11304,16 +11304,16 @@
         <v>0</v>
       </c>
       <c r="T122" t="n">
-        <v>5.33</v>
+        <v>5.06</v>
       </c>
       <c r="U122" t="n">
-        <v>223.77</v>
+        <v>107.35</v>
       </c>
       <c r="V122" t="n">
         <v>0</v>
       </c>
       <c r="W122" t="n">
-        <v>3957.84</v>
+        <v>3957.44</v>
       </c>
       <c r="X122" t="n">
         <v>0</v>
@@ -11342,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>13241.2</v>
+        <v>7327.26</v>
       </c>
       <c r="G123" t="n">
         <v>4554.33</v>
@@ -11360,13 +11360,13 @@
         <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>14532.1</v>
+        <v>7891.21</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>4859.18</v>
+        <v>4837.83</v>
       </c>
       <c r="O123" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="Q123" t="n">
-        <v>12246.89</v>
+        <v>12098.13</v>
       </c>
       <c r="R123" t="n">
         <v>0.13</v>
@@ -11387,13 +11387,13 @@
         <v>0</v>
       </c>
       <c r="U123" t="n">
-        <v>167.24</v>
+        <v>106.56</v>
       </c>
       <c r="V123" t="n">
         <v>5932.92</v>
       </c>
       <c r="W123" t="n">
-        <v>10012.6</v>
+        <v>10012.33</v>
       </c>
       <c r="X123" t="n">
         <v>0</v>
@@ -11422,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>11039.91</v>
+        <v>3874.75</v>
       </c>
       <c r="G124" t="n">
         <v>45723.39</v>
@@ -11437,16 +11437,16 @@
         <v>47.8</v>
       </c>
       <c r="K124" t="n">
-        <v>5.22</v>
+        <v>5.84</v>
       </c>
       <c r="L124" t="n">
-        <v>12219.71</v>
+        <v>4762.51</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>6962.64</v>
+        <v>6914.37</v>
       </c>
       <c r="O124" t="n">
         <v>0</v>
@@ -11455,7 +11455,7 @@
         <v>73.34</v>
       </c>
       <c r="Q124" t="n">
-        <v>2502.89</v>
+        <v>2476.92</v>
       </c>
       <c r="R124" t="n">
         <v>0.97</v>
@@ -11467,7 +11467,7 @@
         <v>4.27</v>
       </c>
       <c r="U124" t="n">
-        <v>65.24</v>
+        <v>28.39</v>
       </c>
       <c r="V124" t="n">
         <v>1</v>
@@ -11502,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>22955.7</v>
+        <v>7890.07</v>
       </c>
       <c r="G125" t="n">
         <v>66747.27</v>
@@ -11517,25 +11517,25 @@
         <v>124.25</v>
       </c>
       <c r="K125" t="n">
-        <v>7.55</v>
+        <v>9.09</v>
       </c>
       <c r="L125" t="n">
-        <v>20754.84</v>
+        <v>7061.55</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>9348.12</v>
+        <v>9276.62</v>
       </c>
       <c r="O125" t="n">
         <v>0</v>
       </c>
       <c r="P125" t="n">
-        <v>110.93</v>
+        <v>110.08</v>
       </c>
       <c r="Q125" t="n">
-        <v>3257.09</v>
+        <v>3133.98</v>
       </c>
       <c r="R125" t="n">
         <v>12.57</v>
@@ -11544,16 +11544,16 @@
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>5.3</v>
+        <v>5.26</v>
       </c>
       <c r="U125" t="n">
-        <v>128.03</v>
+        <v>42.95</v>
       </c>
       <c r="V125" t="n">
         <v>2.28</v>
       </c>
       <c r="W125" t="n">
-        <v>9074.77</v>
+        <v>9074.18</v>
       </c>
       <c r="X125" t="n">
         <v>0.05</v>
@@ -11582,7 +11582,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>3534.23</v>
+        <v>1442.5</v>
       </c>
       <c r="G126" t="n">
         <v>4341.79</v>
@@ -11600,13 +11600,13 @@
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>3723.68</v>
+        <v>1473.49</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>3108.01</v>
+        <v>2344.99</v>
       </c>
       <c r="O126" t="n">
         <v>0</v>
@@ -11615,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="Q126" t="n">
-        <v>6345.04</v>
+        <v>4855.53</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
@@ -11627,13 +11627,13 @@
         <v>0</v>
       </c>
       <c r="U126" t="n">
-        <v>32.39</v>
+        <v>17.74</v>
       </c>
       <c r="V126" t="n">
         <v>25251.64</v>
       </c>
       <c r="W126" t="n">
-        <v>3189.49</v>
+        <v>3170.41</v>
       </c>
       <c r="X126" t="n">
         <v>0</v>
@@ -11662,7 +11662,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1667.01</v>
+        <v>1350.97</v>
       </c>
       <c r="G127" t="n">
         <v>4855.24</v>
@@ -11680,13 +11680,13 @@
         <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>1329.8</v>
+        <v>1065.42</v>
       </c>
       <c r="M127" t="n">
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>1492.15</v>
+        <v>1373.55</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -11695,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="Q127" t="n">
-        <v>3063.52</v>
+        <v>2657.93</v>
       </c>
       <c r="R127" t="n">
         <v>0</v>
@@ -11707,13 +11707,13 @@
         <v>0</v>
       </c>
       <c r="U127" t="n">
-        <v>8.25</v>
+        <v>7.46</v>
       </c>
       <c r="V127" t="n">
         <v>2879.09</v>
       </c>
       <c r="W127" t="n">
-        <v>1240.81</v>
+        <v>1238.49</v>
       </c>
       <c r="X127" t="n">
         <v>0</v>
@@ -11742,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>992.82</v>
+        <v>406.55</v>
       </c>
       <c r="G128" t="n">
         <v>1835.38</v>
@@ -11760,22 +11760,22 @@
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>1324.32</v>
+        <v>520.91</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>948.92</v>
+        <v>807.72</v>
       </c>
       <c r="O128" t="n">
         <v>0</v>
       </c>
       <c r="P128" t="n">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="Q128" t="n">
-        <v>1924.14</v>
+        <v>1624.71</v>
       </c>
       <c r="R128" t="n">
         <v>0</v>
@@ -11784,16 +11784,16 @@
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="U128" t="n">
-        <v>41.5</v>
+        <v>21.13</v>
       </c>
       <c r="V128" t="n">
         <v>0</v>
       </c>
       <c r="W128" t="n">
-        <v>1209.48</v>
+        <v>1209.09</v>
       </c>
       <c r="X128" t="n">
         <v>0</v>
@@ -11822,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>1853.98</v>
+        <v>831.15</v>
       </c>
       <c r="G129" t="n">
         <v>11007.23</v>
@@ -11840,40 +11840,40 @@
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>5020.04</v>
+        <v>1803.45</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
       </c>
       <c r="N129" t="n">
-        <v>10480.53</v>
+        <v>9600.78</v>
       </c>
       <c r="O129" t="n">
         <v>0</v>
       </c>
       <c r="P129" t="n">
-        <v>138.12</v>
+        <v>133.13</v>
       </c>
       <c r="Q129" t="n">
-        <v>84.73</v>
+        <v>82.99</v>
       </c>
       <c r="R129" t="n">
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>5.61</v>
+        <v>4.7</v>
       </c>
       <c r="T129" t="n">
-        <v>32.88</v>
+        <v>31.05</v>
       </c>
       <c r="U129" t="n">
-        <v>487.62</v>
+        <v>176.56</v>
       </c>
       <c r="V129" t="n">
         <v>0</v>
       </c>
       <c r="W129" t="n">
-        <v>1682.99</v>
+        <v>1682.29</v>
       </c>
       <c r="X129" t="n">
         <v>0</v>
@@ -11882,7 +11882,7 @@
         <v>2.6</v>
       </c>
       <c r="Z129" t="n">
-        <v>243.21</v>
+        <v>219.33</v>
       </c>
     </row>
     <row r="130">
@@ -11902,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>935.89</v>
+        <v>682.84</v>
       </c>
       <c r="G130" t="n">
         <v>10747.78</v>
@@ -11920,22 +11920,22 @@
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>1593.06</v>
+        <v>1188.7</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>3850.11</v>
+        <v>2532.93</v>
       </c>
       <c r="O130" t="n">
         <v>0</v>
       </c>
       <c r="P130" t="n">
-        <v>200.27</v>
+        <v>127.29</v>
       </c>
       <c r="Q130" t="n">
-        <v>690.81</v>
+        <v>433.07</v>
       </c>
       <c r="R130" t="n">
         <v>0</v>
@@ -11944,16 +11944,16 @@
         <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>23.41</v>
+        <v>14.92</v>
       </c>
       <c r="U130" t="n">
-        <v>63.54</v>
+        <v>57.62</v>
       </c>
       <c r="V130" t="n">
         <v>0</v>
       </c>
       <c r="W130" t="n">
-        <v>2762.61</v>
+        <v>2442.21</v>
       </c>
       <c r="X130" t="n">
         <v>0</v>
@@ -11962,7 +11962,7 @@
         <v>4.17</v>
       </c>
       <c r="Z130" t="n">
-        <v>8.35</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="131">
@@ -11982,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>134.96</v>
+        <v>157.52</v>
       </c>
       <c r="G131" t="n">
         <v>3060.71</v>
@@ -12000,22 +12000,22 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>224.69</v>
+        <v>264.3</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>416.47</v>
+        <v>399.5</v>
       </c>
       <c r="O131" t="n">
         <v>0</v>
       </c>
       <c r="P131" t="n">
-        <v>27.25</v>
+        <v>26.3</v>
       </c>
       <c r="Q131" t="n">
-        <v>257.04</v>
+        <v>254.09</v>
       </c>
       <c r="R131" t="n">
         <v>0</v>
@@ -12024,16 +12024,16 @@
         <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>3.24</v>
+        <v>3.11</v>
       </c>
       <c r="U131" t="n">
-        <v>3.67</v>
+        <v>5.16</v>
       </c>
       <c r="V131" t="n">
         <v>0</v>
       </c>
       <c r="W131" t="n">
-        <v>292.12</v>
+        <v>290.53</v>
       </c>
       <c r="X131" t="n">
         <v>0</v>
@@ -12042,7 +12042,7 @@
         <v>1.51</v>
       </c>
       <c r="Z131" t="n">
-        <v>4.62</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="132">
@@ -12062,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>768.95</v>
+        <v>507.2</v>
       </c>
       <c r="G132" t="n">
         <v>8757.79</v>
@@ -12080,22 +12080,22 @@
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>1417.35</v>
+        <v>893.82</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>2276.18</v>
+        <v>1588.32</v>
       </c>
       <c r="O132" t="n">
         <v>0</v>
       </c>
       <c r="P132" t="n">
-        <v>130.23</v>
+        <v>89.24</v>
       </c>
       <c r="Q132" t="n">
-        <v>99.46</v>
+        <v>68.4</v>
       </c>
       <c r="R132" t="n">
         <v>0</v>
@@ -12104,16 +12104,16 @@
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>15.84</v>
+        <v>11.01</v>
       </c>
       <c r="U132" t="n">
-        <v>42.3</v>
+        <v>40.5</v>
       </c>
       <c r="V132" t="n">
         <v>0</v>
       </c>
       <c r="W132" t="n">
-        <v>1545.79</v>
+        <v>1465.23</v>
       </c>
       <c r="X132" t="n">
         <v>0</v>
@@ -12122,7 +12122,7 @@
         <v>1.09</v>
       </c>
       <c r="Z132" t="n">
-        <v>12.07</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="133">
@@ -12142,7 +12142,7 @@
         <v>0.12</v>
       </c>
       <c r="F133" t="n">
-        <v>1630.52</v>
+        <v>944.38</v>
       </c>
       <c r="G133" t="n">
         <v>12962.03</v>
@@ -12157,25 +12157,25 @@
         <v>0.65</v>
       </c>
       <c r="K133" t="n">
-        <v>15.27</v>
+        <v>6.27</v>
       </c>
       <c r="L133" t="n">
-        <v>3448.91</v>
+        <v>1621</v>
       </c>
       <c r="M133" t="n">
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>2522.28</v>
+        <v>2287.43</v>
       </c>
       <c r="O133" t="n">
         <v>0</v>
       </c>
       <c r="P133" t="n">
-        <v>240.32</v>
+        <v>217.89</v>
       </c>
       <c r="Q133" t="n">
-        <v>257.58</v>
+        <v>220.48</v>
       </c>
       <c r="R133" t="n">
         <v>0.39</v>
@@ -12184,16 +12184,16 @@
         <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>35.39</v>
+        <v>32.4</v>
       </c>
       <c r="U133" t="n">
-        <v>112.18</v>
+        <v>74.17</v>
       </c>
       <c r="V133" t="n">
         <v>1.36</v>
       </c>
       <c r="W133" t="n">
-        <v>1971.06</v>
+        <v>1970.84</v>
       </c>
       <c r="X133" t="n">
         <v>0</v>
@@ -12202,7 +12202,7 @@
         <v>3.57</v>
       </c>
       <c r="Z133" t="n">
-        <v>28.92</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="134">
@@ -12222,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>83.45</v>
+        <v>98.49</v>
       </c>
       <c r="G134" t="n">
         <v>918.35</v>
@@ -12240,22 +12240,22 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>140.06</v>
+        <v>169.8</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>194.35</v>
+        <v>190.76</v>
       </c>
       <c r="O134" t="n">
         <v>0</v>
       </c>
       <c r="P134" t="n">
-        <v>11.45</v>
+        <v>11.25</v>
       </c>
       <c r="Q134" t="n">
-        <v>67.88</v>
+        <v>66.24</v>
       </c>
       <c r="R134" t="n">
         <v>0</v>
@@ -12264,10 +12264,10 @@
         <v>0</v>
       </c>
       <c r="T134" t="n">
-        <v>2.73</v>
+        <v>2.69</v>
       </c>
       <c r="U134" t="n">
-        <v>4.5</v>
+        <v>6.07</v>
       </c>
       <c r="V134" t="n">
         <v>0</v>
@@ -12302,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>3392.57</v>
+        <v>2235.74</v>
       </c>
       <c r="G135" t="n">
         <v>41913.82</v>
@@ -12320,22 +12320,22 @@
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>7071.88</v>
+        <v>4191.06</v>
       </c>
       <c r="M135" t="n">
         <v>0</v>
       </c>
       <c r="N135" t="n">
-        <v>6378.12</v>
+        <v>5954.8</v>
       </c>
       <c r="O135" t="n">
         <v>0</v>
       </c>
       <c r="P135" t="n">
-        <v>465.11</v>
+        <v>438.72</v>
       </c>
       <c r="Q135" t="n">
-        <v>596.11</v>
+        <v>447.09</v>
       </c>
       <c r="R135" t="n">
         <v>0</v>
@@ -12344,16 +12344,16 @@
         <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>187.91</v>
+        <v>177.7</v>
       </c>
       <c r="U135" t="n">
-        <v>528.29</v>
+        <v>128.69</v>
       </c>
       <c r="V135" t="n">
         <v>0</v>
       </c>
       <c r="W135" t="n">
-        <v>4648.76</v>
+        <v>4635.37</v>
       </c>
       <c r="X135" t="n">
         <v>0</v>
@@ -12362,7 +12362,7 @@
         <v>11.01</v>
       </c>
       <c r="Z135" t="n">
-        <v>57.24</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="136">
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>966.52</v>
+        <v>911.75</v>
       </c>
       <c r="G136" t="n">
         <v>6522.81</v>
@@ -12400,22 +12400,22 @@
         <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>1790.65</v>
+        <v>1679.06</v>
       </c>
       <c r="M136" t="n">
         <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>1595.02</v>
+        <v>1550.6</v>
       </c>
       <c r="O136" t="n">
         <v>0</v>
       </c>
       <c r="P136" t="n">
-        <v>124.99</v>
+        <v>122.39</v>
       </c>
       <c r="Q136" t="n">
-        <v>31.42</v>
+        <v>31.24</v>
       </c>
       <c r="R136" t="n">
         <v>0</v>
@@ -12424,16 +12424,16 @@
         <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>26.33</v>
+        <v>25.54</v>
       </c>
       <c r="U136" t="n">
-        <v>38.02</v>
+        <v>39.92</v>
       </c>
       <c r="V136" t="n">
         <v>0</v>
       </c>
       <c r="W136" t="n">
-        <v>1255.96</v>
+        <v>1253.61</v>
       </c>
       <c r="X136" t="n">
         <v>0</v>
@@ -12442,7 +12442,7 @@
         <v>2.47</v>
       </c>
       <c r="Z136" t="n">
-        <v>7.37</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="137">
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>11742.51</v>
+        <v>3829.02</v>
       </c>
       <c r="G137" t="n">
         <v>38335.28</v>
@@ -12480,22 +12480,22 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>21348.98</v>
+        <v>6294.01</v>
       </c>
       <c r="M137" t="n">
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>14384.77</v>
+        <v>10618.09</v>
       </c>
       <c r="O137" t="n">
         <v>0</v>
       </c>
       <c r="P137" t="n">
-        <v>848.96</v>
+        <v>588.7</v>
       </c>
       <c r="Q137" t="n">
-        <v>1974.46</v>
+        <v>1316.71</v>
       </c>
       <c r="R137" t="n">
         <v>0</v>
@@ -12504,25 +12504,25 @@
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>126.16</v>
+        <v>86.58</v>
       </c>
       <c r="U137" t="n">
-        <v>853.7</v>
+        <v>355.18</v>
       </c>
       <c r="V137" t="n">
         <v>0</v>
       </c>
       <c r="W137" t="n">
-        <v>12569.41</v>
+        <v>12066.38</v>
       </c>
       <c r="X137" t="n">
         <v>0</v>
       </c>
       <c r="Y137" t="n">
-        <v>111.71</v>
+        <v>111.7</v>
       </c>
       <c r="Z137" t="n">
-        <v>48.22</v>
+        <v>41.72</v>
       </c>
     </row>
     <row r="138">
@@ -12942,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>1722.61</v>
+        <v>581.08</v>
       </c>
       <c r="G143" t="n">
         <v>3332.05</v>
@@ -12960,22 +12960,22 @@
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>1959.36</v>
+        <v>575.46</v>
       </c>
       <c r="M143" t="n">
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>764.85</v>
+        <v>685.64</v>
       </c>
       <c r="O143" t="n">
         <v>0</v>
       </c>
       <c r="P143" t="n">
-        <v>54.32</v>
+        <v>34.48</v>
       </c>
       <c r="Q143" t="n">
-        <v>4028.92</v>
+        <v>3196.38</v>
       </c>
       <c r="R143" t="n">
         <v>0.19</v>
@@ -12984,16 +12984,16 @@
         <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>55.12</v>
+        <v>34.34</v>
       </c>
       <c r="U143" t="n">
-        <v>2.71</v>
+        <v>1.28</v>
       </c>
       <c r="V143" t="n">
         <v>0</v>
       </c>
       <c r="W143" t="n">
-        <v>2751.69</v>
+        <v>2746.87</v>
       </c>
       <c r="X143" t="n">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>1.13</v>
       </c>
       <c r="Z143" t="n">
-        <v>6.35</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="144">
@@ -13022,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>440.83</v>
+        <v>439.97</v>
       </c>
       <c r="G144" t="n">
         <v>97.08</v>
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>668.57</v>
+        <v>667.07</v>
       </c>
       <c r="M144" t="n">
         <v>0</v>
@@ -13102,7 +13102,7 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>1079.34</v>
+        <v>1079.11</v>
       </c>
       <c r="G145" t="n">
         <v>29.31</v>
@@ -13120,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>1076</v>
+        <v>1075.77</v>
       </c>
       <c r="M145" t="n">
         <v>0</v>
@@ -13182,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>4197.64</v>
+        <v>3244.92</v>
       </c>
       <c r="G146" t="n">
         <v>12805.5</v>
@@ -13200,7 +13200,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>6852.53</v>
+        <v>5280.93</v>
       </c>
       <c r="M146" t="n">
         <v>0</v>
@@ -13262,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>832.7</v>
+        <v>476.36</v>
       </c>
       <c r="G147" t="n">
         <v>248.89</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>847.49</v>
+        <v>488.68</v>
       </c>
       <c r="M147" t="n">
         <v>0</v>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>3834.51</v>
+        <v>2426.52</v>
       </c>
       <c r="G148" t="n">
         <v>5869.71</v>
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>6540.41</v>
+        <v>3979.98</v>
       </c>
       <c r="M148" t="n">
         <v>0</v>
@@ -13422,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>16310.58</v>
+        <v>7926.28</v>
       </c>
       <c r="G149" t="n">
         <v>52737.62</v>
@@ -13437,25 +13437,25 @@
         <v>1.45</v>
       </c>
       <c r="K149" t="n">
-        <v>317.02</v>
+        <v>196.77</v>
       </c>
       <c r="L149" t="n">
-        <v>28176.83</v>
+        <v>13393.22</v>
       </c>
       <c r="M149" t="n">
         <v>0</v>
       </c>
       <c r="N149" t="n">
-        <v>6091.97</v>
+        <v>6019.59</v>
       </c>
       <c r="O149" t="n">
-        <v>237.99</v>
+        <v>147.21</v>
       </c>
       <c r="P149" t="n">
-        <v>9.37</v>
+        <v>9.31</v>
       </c>
       <c r="Q149" t="n">
-        <v>11222.77</v>
+        <v>11159.94</v>
       </c>
       <c r="R149" t="n">
         <v>44.74</v>
@@ -13464,10 +13464,10 @@
         <v>0</v>
       </c>
       <c r="T149" t="n">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
       <c r="U149" t="n">
-        <v>52.15</v>
+        <v>25.14</v>
       </c>
       <c r="V149" t="n">
         <v>2.37</v>
@@ -13502,7 +13502,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>15454.97</v>
+        <v>7114.96</v>
       </c>
       <c r="G150" t="n">
         <v>39279.04</v>
@@ -13517,25 +13517,25 @@
         <v>37.03</v>
       </c>
       <c r="K150" t="n">
-        <v>14.14</v>
+        <v>17.73</v>
       </c>
       <c r="L150" t="n">
-        <v>18758.98</v>
+        <v>9219.02</v>
       </c>
       <c r="M150" t="n">
         <v>0</v>
       </c>
       <c r="N150" t="n">
-        <v>5277.76</v>
+        <v>4957.65</v>
       </c>
       <c r="O150" t="n">
         <v>0</v>
       </c>
       <c r="P150" t="n">
-        <v>213.74</v>
+        <v>198.79</v>
       </c>
       <c r="Q150" t="n">
-        <v>442.77</v>
+        <v>425.54</v>
       </c>
       <c r="R150" t="n">
         <v>92.08</v>
@@ -13544,16 +13544,16 @@
         <v>0</v>
       </c>
       <c r="T150" t="n">
-        <v>9.16</v>
+        <v>8.46</v>
       </c>
       <c r="U150" t="n">
-        <v>8.53</v>
+        <v>9.51</v>
       </c>
       <c r="V150" t="n">
         <v>6.8</v>
       </c>
       <c r="W150" t="n">
-        <v>12309.57</v>
+        <v>12276.57</v>
       </c>
       <c r="X150" t="n">
         <v>0.09</v>
@@ -13582,7 +13582,7 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>517.85</v>
+        <v>457.66</v>
       </c>
       <c r="G151" t="n">
         <v>55.61</v>
@@ -13600,7 +13600,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>428.7</v>
+        <v>389.21</v>
       </c>
       <c r="M151" t="n">
         <v>0</v>
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>2284.71</v>
+        <v>1228.32</v>
       </c>
       <c r="G152" t="n">
         <v>1137.78</v>
@@ -13680,22 +13680,22 @@
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>1127.41</v>
+        <v>851.12</v>
       </c>
       <c r="M152" t="n">
         <v>0</v>
       </c>
       <c r="N152" t="n">
-        <v>855.24</v>
+        <v>842.14</v>
       </c>
       <c r="O152" t="n">
         <v>0</v>
       </c>
       <c r="P152" t="n">
-        <v>99.26</v>
+        <v>94.61</v>
       </c>
       <c r="Q152" t="n">
-        <v>4642.52</v>
+        <v>4526.41</v>
       </c>
       <c r="R152" t="n">
         <v>0.15</v>
@@ -13704,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="T152" t="n">
-        <v>94.16</v>
+        <v>90</v>
       </c>
       <c r="U152" t="n">
         <v>0</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="W152" t="n">
-        <v>3691.51</v>
+        <v>3691.5</v>
       </c>
       <c r="X152" t="n">
         <v>0</v>
@@ -13722,7 +13722,7 @@
         <v>1.02</v>
       </c>
       <c r="Z152" t="n">
-        <v>9.32</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="153">
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>198.39</v>
+        <v>19.64</v>
       </c>
       <c r="G153" t="n">
         <v>20.24</v>
@@ -13760,13 +13760,13 @@
         <v>0</v>
       </c>
       <c r="L153" t="n">
-        <v>13.62</v>
+        <v>1.51</v>
       </c>
       <c r="M153" t="n">
         <v>0</v>
       </c>
       <c r="N153" t="n">
-        <v>23.28</v>
+        <v>23.25</v>
       </c>
       <c r="O153" t="n">
         <v>0</v>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="Q153" t="n">
-        <v>1040.74</v>
+        <v>1039.5</v>
       </c>
       <c r="R153" t="n">
         <v>0</v>
@@ -13822,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>11784.96</v>
+        <v>6929.32</v>
       </c>
       <c r="G154" t="n">
         <v>44359.78</v>
@@ -13837,25 +13837,25 @@
         <v>3.5</v>
       </c>
       <c r="K154" t="n">
-        <v>5.91</v>
+        <v>5.94</v>
       </c>
       <c r="L154" t="n">
-        <v>20154.14</v>
+        <v>12203.35</v>
       </c>
       <c r="M154" t="n">
         <v>0</v>
       </c>
       <c r="N154" t="n">
-        <v>5360.9</v>
+        <v>5228.91</v>
       </c>
       <c r="O154" t="n">
         <v>0</v>
       </c>
       <c r="P154" t="n">
-        <v>25.33</v>
+        <v>25.17</v>
       </c>
       <c r="Q154" t="n">
-        <v>135.98</v>
+        <v>132.23</v>
       </c>
       <c r="R154" t="n">
         <v>53.35</v>
@@ -13864,16 +13864,16 @@
         <v>0</v>
       </c>
       <c r="T154" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U154" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V154" t="n">
         <v>1.54</v>
       </c>
       <c r="W154" t="n">
-        <v>11818.98</v>
+        <v>11818.44</v>
       </c>
       <c r="X154" t="n">
         <v>0.05</v>
@@ -13902,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>1679.99</v>
+        <v>1662.48</v>
       </c>
       <c r="G155" t="n">
         <v>216.9</v>
@@ -13920,7 +13920,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>1392.9</v>
+        <v>1381.84</v>
       </c>
       <c r="M155" t="n">
         <v>0</v>
@@ -13982,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>10604.04</v>
+        <v>4077.77</v>
       </c>
       <c r="G156" t="n">
         <v>19564.99</v>
@@ -14000,13 +14000,13 @@
         <v>0</v>
       </c>
       <c r="L156" t="n">
-        <v>15720.9</v>
+        <v>6127.45</v>
       </c>
       <c r="M156" t="n">
         <v>0</v>
       </c>
       <c r="N156" t="n">
-        <v>2662.78</v>
+        <v>2662.67</v>
       </c>
       <c r="O156" t="n">
         <v>0</v>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="Q156" t="n">
-        <v>2150.42</v>
+        <v>2149.97</v>
       </c>
       <c r="R156" t="n">
         <v>13.46</v>
@@ -14027,7 +14027,7 @@
         <v>0</v>
       </c>
       <c r="U156" t="n">
-        <v>2.05</v>
+        <v>1.04</v>
       </c>
       <c r="V156" t="n">
         <v>0</v>
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>770.68</v>
+        <v>770.34</v>
       </c>
       <c r="G157" t="n">
         <v>42.38</v>
@@ -14080,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="L157" t="n">
-        <v>1100.17</v>
+        <v>1099.61</v>
       </c>
       <c r="M157" t="n">
         <v>0</v>
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>1567.14</v>
+        <v>1511.38</v>
       </c>
       <c r="G158" t="n">
         <v>676.71</v>
@@ -14160,7 +14160,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>2336.55</v>
+        <v>2289.87</v>
       </c>
       <c r="M158" t="n">
         <v>0</v>
@@ -14222,7 +14222,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>1220.95</v>
+        <v>1107.66</v>
       </c>
       <c r="G159" t="n">
         <v>1906.13</v>
@@ -14237,10 +14237,10 @@
         <v>0.06</v>
       </c>
       <c r="K159" t="n">
-        <v>61.54</v>
+        <v>61.53</v>
       </c>
       <c r="L159" t="n">
-        <v>1549.89</v>
+        <v>1400.3</v>
       </c>
       <c r="M159" t="n">
         <v>0</v>
@@ -14249,7 +14249,7 @@
         <v>585.62</v>
       </c>
       <c r="O159" t="n">
-        <v>50.69</v>
+        <v>50.63</v>
       </c>
       <c r="P159" t="n">
         <v>3.69</v>
@@ -14267,7 +14267,7 @@
         <v>0.81</v>
       </c>
       <c r="U159" t="n">
-        <v>12.53</v>
+        <v>12.52</v>
       </c>
       <c r="V159" t="n">
         <v>0</v>
@@ -14302,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>767.48</v>
+        <v>762.54</v>
       </c>
       <c r="G160" t="n">
         <v>237.05</v>
@@ -14320,7 +14320,7 @@
         <v>8.82</v>
       </c>
       <c r="L160" t="n">
-        <v>1048.45</v>
+        <v>1041.28</v>
       </c>
       <c r="M160" t="n">
         <v>0</v>
